--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{A0747018-251B-49C7-9A7B-C7C717FFACA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9474FFE8-3361-4BB8-98EA-07347ECCDD0A}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{A0747018-251B-49C7-9A7B-C7C717FFACA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AC17F39-1EEA-4849-8D5E-F2539B7370EC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Projektplanlægger</t>
   </si>
@@ -111,37 +111,31 @@
     <t>EF Config</t>
   </si>
   <si>
-    <t>DTO</t>
-  </si>
-  <si>
-    <t>UserController</t>
-  </si>
-  <si>
-    <t>TicketController</t>
-  </si>
-  <si>
     <t>Opsætning af JWT</t>
   </si>
   <si>
-    <t>CommentController</t>
+    <t>Testing</t>
   </si>
   <si>
-    <t>NotificationController</t>
+    <t>Front-Login</t>
   </si>
   <si>
-    <t>GUI-Login</t>
+    <t>Front-Register</t>
   </si>
   <si>
-    <t>GUI-Register</t>
+    <t>Front-Dashboard</t>
   </si>
   <si>
-    <t>GUI-Landing</t>
+    <t>DTO/Interfaces</t>
   </si>
   <si>
-    <t>GUI_NySag</t>
+    <t>Services</t>
   </si>
   <si>
-    <t>Testing</t>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Controllers</t>
   </si>
 </sst>
 </file>
@@ -1133,6 +1127,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1366,10 +1364,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BH30"/>
+  <dimension ref="B1:BH28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1749,11 +1747,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="18">
-        <v>50</v>
-      </c>
-      <c r="E7" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
       <c r="F7" s="18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -1784,16 +1784,16 @@
         <v>18</v>
       </c>
       <c r="C8" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="18">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E8" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
         <v>0.75</v>
@@ -1824,13 +1824,13 @@
         <v>19</v>
       </c>
       <c r="C9" s="18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
       </c>
       <c r="E9" s="18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="18">
         <v>1</v>
@@ -1864,16 +1864,16 @@
         <v>20</v>
       </c>
       <c r="C10" s="18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
       </c>
       <c r="E10" s="18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F10" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -1901,19 +1901,19 @@
     </row>
     <row r="11" spans="2:60" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C11" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="18">
         <v>1</v>
       </c>
       <c r="E11" s="18">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F11" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
@@ -1941,16 +1941,16 @@
     </row>
     <row r="12" spans="2:60" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" s="18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="18">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F12" s="18">
         <v>1</v>
@@ -1981,16 +1981,16 @@
     </row>
     <row r="13" spans="2:60" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C13" s="18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="18">
         <v>1</v>
       </c>
       <c r="E13" s="18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F13" s="18">
         <v>1</v>
@@ -2021,16 +2021,16 @@
     </row>
     <row r="14" spans="2:60" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" s="18">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
       </c>
       <c r="E14" s="18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F14" s="18">
         <v>1</v>
@@ -2061,16 +2061,16 @@
     </row>
     <row r="15" spans="2:60" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C15" s="19">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="18">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F15" s="18">
         <v>1</v>
@@ -2101,22 +2101,22 @@
     </row>
     <row r="16" spans="2:60" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="18">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D16" s="18">
         <v>1</v>
       </c>
       <c r="E16" s="18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F16" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G16" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -2141,22 +2141,22 @@
     </row>
     <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17" s="18">
         <v>1</v>
       </c>
       <c r="E17" s="18">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F17" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G17" s="4">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -2181,22 +2181,22 @@
     </row>
     <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D18" s="18">
         <v>1</v>
       </c>
       <c r="E18" s="18">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F18" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -2221,22 +2221,22 @@
     </row>
     <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C19" s="18">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="18">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F19" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -2260,24 +2260,12 @@
       <c r="AA19"/>
     </row>
     <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="18">
-        <v>20</v>
-      </c>
-      <c r="D20" s="18">
-        <v>1</v>
-      </c>
-      <c r="E20" s="18">
-        <v>21</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="4"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -2300,24 +2288,12 @@
       <c r="AA20"/>
     </row>
     <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="18">
-        <v>21</v>
-      </c>
-      <c r="D21" s="18">
-        <v>2</v>
-      </c>
-      <c r="E21" s="18">
-        <v>24</v>
-      </c>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.8</v>
-      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="4"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -2535,62 +2511,6 @@
       <c r="Z28"/>
       <c r="AA28"/>
     </row>
-    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="4"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-    </row>
-    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="4"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="AL2:AS2"/>
@@ -2606,7 +2526,7 @@
     <mergeCell ref="R2:W2"/>
     <mergeCell ref="Y2:AA2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B31:DC31">
+  <conditionalFormatting sqref="B29:BG29 BH30 BI31:DC31">
     <cfRule type="expression" dxfId="9" priority="12">
       <formula>TRUE</formula>
     </cfRule>
@@ -2616,7 +2536,7 @@
       <formula>H$4=valgt_tidsrum</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BH21">
+  <conditionalFormatting sqref="H5:BH15 H16:BG19 BH16:BH20">
     <cfRule type="expression" dxfId="7" priority="11">
       <formula>ProcentdelFuldført</formula>
     </cfRule>
@@ -2642,7 +2562,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
+  <dataValidations disablePrompts="1" count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Projektplanlæggeren bruger tidsrum som intervaller. Start=1 er tidsrum 1 og varighed=5 betyder, at projektet indeholder 5 tidsrum fra starttidsrummet. Indtast data med start i B5 for at opdatere diagrammet" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Indtast en værdi fra 1 til 60, eller vælg et tidsrum på listen – tryk på ANNULLER, ALT+PIL NED og derefter på ENTER for at vælge en værdi" prompt="Angiv et tidsrum inden for værdimængden af 1 til 60, eller vælg et tidsrum på listen. Tryk på ALT+PIL NED for at navigere på listen, og tryk derefter på ENTER for at vælge en værdi" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
@@ -2677,6 +2597,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fb3db277-d37c-4294-a18a-6883eecb93af" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007C4BF558AE40D240BDDA30BBA5DAD0CC" ma:contentTypeVersion="18" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="2423199d00ac53f4531f05361a1af8e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="02c16ba3-7f80-451e-a59f-75dc6b30dc03" xmlns:ns4="fb3db277-d37c-4294-a18a-6883eecb93af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd2e8d830613da71b7c051ecf8052be6" ns3:_="" ns4:_="">
     <xsd:import namespace="02c16ba3-7f80-451e-a59f-75dc6b30dc03"/>
@@ -2929,24 +2866,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fb3db277-d37c-4294-a18a-6883eecb93af" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F279105-63CB-4F93-BBA6-A58E9F83F048}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fb3db277-d37c-4294-a18a-6883eecb93af"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787DBAEB-0AF3-4324-B644-BA0D2DE78C72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3CF3D8E-CC0D-41DE-8CA4-E0739BBF2CD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2963,22 +2901,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F279105-63CB-4F93-BBA6-A58E9F83F048}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fb3db277-d37c-4294-a18a-6883eecb93af"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787DBAEB-0AF3-4324-B644-BA0D2DE78C72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{A0747018-251B-49C7-9A7B-C7C717FFACA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AC17F39-1EEA-4849-8D5E-F2539B7370EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F62804-50C6-4F4E-84E9-CFA2FA06106C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1129,10 +1129,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1366,8 +1362,8 @@
   </sheetPr>
   <dimension ref="B1:BH28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1953,7 +1949,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -2030,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F14" s="18">
         <v>1</v>
@@ -2597,20 +2593,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fb3db277-d37c-4294-a18a-6883eecb93af" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fb3db277-d37c-4294-a18a-6883eecb93af" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2867,19 +2863,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787DBAEB-0AF3-4324-B644-BA0D2DE78C72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F279105-63CB-4F93-BBA6-A58E9F83F048}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="fb3db277-d37c-4294-a18a-6883eecb93af"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787DBAEB-0AF3-4324-B644-BA0D2DE78C72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F62804-50C6-4F4E-84E9-CFA2FA06106C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7511D88D-A1AE-48B5-A619-DC9592209D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1363,7 +1363,7 @@
   <dimension ref="B1:BH28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F15" s="18">
         <v>1</v>
@@ -2593,23 +2593,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fb3db277-d37c-4294-a18a-6883eecb93af" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007C4BF558AE40D240BDDA30BBA5DAD0CC" ma:contentTypeVersion="18" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="2423199d00ac53f4531f05361a1af8e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="02c16ba3-7f80-451e-a59f-75dc6b30dc03" xmlns:ns4="fb3db277-d37c-4294-a18a-6883eecb93af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd2e8d830613da71b7c051ecf8052be6" ns3:_="" ns4:_="">
     <xsd:import namespace="02c16ba3-7f80-451e-a59f-75dc6b30dc03"/>
@@ -2862,25 +2845,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787DBAEB-0AF3-4324-B644-BA0D2DE78C72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fb3db277-d37c-4294-a18a-6883eecb93af" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F279105-63CB-4F93-BBA6-A58E9F83F048}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fb3db277-d37c-4294-a18a-6883eecb93af"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3CF3D8E-CC0D-41DE-8CA4-E0739BBF2CD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2897,4 +2879,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F279105-63CB-4F93-BBA6-A58E9F83F048}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fb3db277-d37c-4294-a18a-6883eecb93af"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787DBAEB-0AF3-4324-B644-BA0D2DE78C72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7511D88D-A1AE-48B5-A619-DC9592209D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CF2D74-8E8B-4BFB-B2DD-49CD3CA79307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1363,7 +1363,7 @@
   <dimension ref="B1:BH28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2106,10 +2106,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="18">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F16" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
         <v>0.75</v>
@@ -2146,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="18">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F17" s="18">
         <v>1</v>
@@ -2593,6 +2593,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fb3db277-d37c-4294-a18a-6883eecb93af" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007C4BF558AE40D240BDDA30BBA5DAD0CC" ma:contentTypeVersion="18" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="2423199d00ac53f4531f05361a1af8e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="02c16ba3-7f80-451e-a59f-75dc6b30dc03" xmlns:ns4="fb3db277-d37c-4294-a18a-6883eecb93af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd2e8d830613da71b7c051ecf8052be6" ns3:_="" ns4:_="">
     <xsd:import namespace="02c16ba3-7f80-451e-a59f-75dc6b30dc03"/>
@@ -2845,24 +2862,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fb3db277-d37c-4294-a18a-6883eecb93af" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787DBAEB-0AF3-4324-B644-BA0D2DE78C72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F279105-63CB-4F93-BBA6-A58E9F83F048}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fb3db277-d37c-4294-a18a-6883eecb93af"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3CF3D8E-CC0D-41DE-8CA4-E0739BBF2CD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2879,22 +2897,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F279105-63CB-4F93-BBA6-A58E9F83F048}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fb3db277-d37c-4294-a18a-6883eecb93af"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787DBAEB-0AF3-4324-B644-BA0D2DE78C72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CF2D74-8E8B-4BFB-B2DD-49CD3CA79307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1779E-A9EF-4A28-A873-260C618AA159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1363,7 +1363,7 @@
   <dimension ref="B1:BH28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1746,7 +1746,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F7" s="18">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="18">
         <v>0</v>
@@ -2186,10 +2186,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="18">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -2593,23 +2593,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fb3db277-d37c-4294-a18a-6883eecb93af" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007C4BF558AE40D240BDDA30BBA5DAD0CC" ma:contentTypeVersion="18" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="2423199d00ac53f4531f05361a1af8e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="02c16ba3-7f80-451e-a59f-75dc6b30dc03" xmlns:ns4="fb3db277-d37c-4294-a18a-6883eecb93af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd2e8d830613da71b7c051ecf8052be6" ns3:_="" ns4:_="">
     <xsd:import namespace="02c16ba3-7f80-451e-a59f-75dc6b30dc03"/>
@@ -2862,25 +2845,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787DBAEB-0AF3-4324-B644-BA0D2DE78C72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fb3db277-d37c-4294-a18a-6883eecb93af" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F279105-63CB-4F93-BBA6-A58E9F83F048}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fb3db277-d37c-4294-a18a-6883eecb93af"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3CF3D8E-CC0D-41DE-8CA4-E0739BBF2CD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2897,4 +2879,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F279105-63CB-4F93-BBA6-A58E9F83F048}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fb3db277-d37c-4294-a18a-6883eecb93af"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787DBAEB-0AF3-4324-B644-BA0D2DE78C72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1779E-A9EF-4A28-A873-260C618AA159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E423356-FFD9-4712-9F02-FFA87E0BEC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1362,8 +1362,8 @@
   </sheetPr>
   <dimension ref="B1:BH28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1749,7 +1749,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G8" s="4">
         <v>0.75</v>
@@ -1832,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -1912,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
@@ -1952,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -2112,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -2192,7 +2192,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -2226,13 +2226,13 @@
         <v>1</v>
       </c>
       <c r="E19" s="18">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F19" s="18">
         <v>1</v>
       </c>
       <c r="G19" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -2558,7 +2558,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="16">
+  <dataValidations count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Projektplanlæggeren bruger tidsrum som intervaller. Start=1 er tidsrum 1 og varighed=5 betyder, at projektet indeholder 5 tidsrum fra starttidsrummet. Indtast data med start i B5 for at opdatere diagrammet" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Indtast en værdi fra 1 til 60, eller vælg et tidsrum på listen – tryk på ANNULLER, ALT+PIL NED og derefter på ENTER for at vælge en værdi" prompt="Angiv et tidsrum inden for værdimængden af 1 til 60, eller vælg et tidsrum på listen. Tryk på ALT+PIL NED for at navigere på listen, og tryk derefter på ENTER for at vælge en værdi" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
@@ -2593,6 +2593,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fb3db277-d37c-4294-a18a-6883eecb93af" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007C4BF558AE40D240BDDA30BBA5DAD0CC" ma:contentTypeVersion="18" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="2423199d00ac53f4531f05361a1af8e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="02c16ba3-7f80-451e-a59f-75dc6b30dc03" xmlns:ns4="fb3db277-d37c-4294-a18a-6883eecb93af" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd2e8d830613da71b7c051ecf8052be6" ns3:_="" ns4:_="">
     <xsd:import namespace="02c16ba3-7f80-451e-a59f-75dc6b30dc03"/>
@@ -2845,24 +2862,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fb3db277-d37c-4294-a18a-6883eecb93af" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787DBAEB-0AF3-4324-B644-BA0D2DE78C72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F279105-63CB-4F93-BBA6-A58E9F83F048}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fb3db277-d37c-4294-a18a-6883eecb93af"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3CF3D8E-CC0D-41DE-8CA4-E0739BBF2CD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2879,22 +2897,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F279105-63CB-4F93-BBA6-A58E9F83F048}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fb3db277-d37c-4294-a18a-6883eecb93af"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787DBAEB-0AF3-4324-B644-BA0D2DE78C72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>